--- a/GameList.xlsx
+++ b/GameList.xlsx
@@ -14,54 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Quantum Break</t>
-  </si>
-  <si>
-    <t>MudRunner</t>
-  </si>
-  <si>
-    <t>The Flame in the Flood</t>
-  </si>
-  <si>
-    <t>Shelter 2</t>
-  </si>
-  <si>
-    <t>Tacoma</t>
-  </si>
-  <si>
-    <t>Kingdoms and Castles</t>
-  </si>
-  <si>
-    <t>Castle Story</t>
-  </si>
-  <si>
-    <t>Rage 2</t>
-  </si>
-  <si>
-    <t>Meadow</t>
-  </si>
-  <si>
-    <t>Battle Chasers: Nightwar</t>
-  </si>
-  <si>
-    <t>GTFO</t>
-  </si>
-  <si>
-    <t>Shelter</t>
-  </si>
-  <si>
-    <t>Foxhole</t>
-  </si>
-  <si>
-    <t>TerraTech</t>
-  </si>
-  <si>
-    <t>Animal Crossing: New Horizons</t>
+    <t>What Remains of Edith Finch</t>
+  </si>
+  <si>
+    <t>Into the Breach</t>
+  </si>
+  <si>
+    <t>Return of the Obra Dinn</t>
+  </si>
+  <si>
+    <t>Bloodstained: Ritual of the Nights</t>
+  </si>
+  <si>
+    <t>Hardcore Mecha</t>
+  </si>
+  <si>
+    <t>AI: The Somnium Files</t>
+  </si>
+  <si>
+    <t>One Punch Man: A Hero Nobody Knows</t>
+  </si>
+  <si>
+    <t>Broken Delusion</t>
+  </si>
+  <si>
+    <t>Granblue Fantasy: Versus</t>
+  </si>
+  <si>
+    <t>Ori and the Will of the Wisps</t>
+  </si>
+  <si>
+    <t>Unity of Command II</t>
+  </si>
+  <si>
+    <t>Sunless Skies</t>
+  </si>
+  <si>
+    <t>Telling Lies</t>
+  </si>
+  <si>
+    <t>Planet Zoo</t>
+  </si>
+  <si>
+    <t>Fantasy General II</t>
+  </si>
+  <si>
+    <t>Autonauts</t>
+  </si>
+  <si>
+    <t>Dicey Dungeons</t>
+  </si>
+  <si>
+    <t>Disco Elysium</t>
+  </si>
+  <si>
+    <t>Sands of Salzaar</t>
+  </si>
+  <si>
+    <t>Chinese Parents</t>
+  </si>
+  <si>
+    <t>Unavowed</t>
+  </si>
+  <si>
+    <t>Crosscode</t>
   </si>
 </sst>
 </file>
@@ -70,11 +91,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +117,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -108,68 +162,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,17 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,37 +224,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,12 +275,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,174 +455,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -470,9 +486,18 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,8 +505,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,17 +526,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +550,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,6 +574,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -556,15 +599,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,147 +619,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1069,73 +1106,108 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:1">
       <c r="A16" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/GameList.xlsx
+++ b/GameList.xlsx
@@ -14,75 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>What Remains of Edith Finch</t>
-  </si>
-  <si>
-    <t>Into the Breach</t>
-  </si>
-  <si>
-    <t>Return of the Obra Dinn</t>
-  </si>
-  <si>
-    <t>Bloodstained: Ritual of the Nights</t>
-  </si>
-  <si>
-    <t>Hardcore Mecha</t>
-  </si>
-  <si>
-    <t>AI: The Somnium Files</t>
-  </si>
-  <si>
-    <t>One Punch Man: A Hero Nobody Knows</t>
-  </si>
-  <si>
-    <t>Broken Delusion</t>
-  </si>
-  <si>
-    <t>Granblue Fantasy: Versus</t>
-  </si>
-  <si>
-    <t>Ori and the Will of the Wisps</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>游戏英文名</t>
+  </si>
+  <si>
+    <t>Through the Darkest of Times</t>
+  </si>
+  <si>
+    <t>Little Big Workshop</t>
   </si>
   <si>
     <t>Unity of Command II</t>
   </si>
   <si>
-    <t>Sunless Skies</t>
-  </si>
-  <si>
-    <t>Telling Lies</t>
-  </si>
-  <si>
-    <t>Planet Zoo</t>
+    <t>Crying Suns</t>
+  </si>
+  <si>
+    <t>Autonauts</t>
+  </si>
+  <si>
+    <t>Drug Dealer Simulator</t>
+  </si>
+  <si>
+    <t>Cloudpunk</t>
   </si>
   <si>
     <t>Fantasy General II</t>
   </si>
   <si>
-    <t>Autonauts</t>
+    <t>Field of Glory: Empires</t>
+  </si>
+  <si>
+    <t>Iratus: Lord of the Dead</t>
+  </si>
+  <si>
+    <t>Monster Train</t>
+  </si>
+  <si>
+    <t>The Beast Inside</t>
   </si>
   <si>
     <t>Dicey Dungeons</t>
   </si>
   <si>
+    <t>Conan Unconquered</t>
+  </si>
+  <si>
+    <t>Steel Division 2</t>
+  </si>
+  <si>
+    <t>Battlefleet Gothic: Armada 2</t>
+  </si>
+  <si>
     <t>Disco Elysium</t>
   </si>
   <si>
-    <t>Sands of Salzaar</t>
-  </si>
-  <si>
-    <t>Chinese Parents</t>
-  </si>
-  <si>
-    <t>Unavowed</t>
-  </si>
-  <si>
-    <t>Crosscode</t>
+    <t>Green Hell</t>
+  </si>
+  <si>
+    <t>Kenshi</t>
+  </si>
+  <si>
+    <t>Artifact</t>
   </si>
 </sst>
 </file>
@@ -90,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -105,19 +99,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,7 +156,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,18 +170,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,9 +209,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,65 +234,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,7 +263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,224 +281,185 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,15 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -591,6 +543,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -607,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,150 +580,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,10 +1039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="A22" sqref="A22:A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1106,108 +1061,98 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/GameList.xlsx
+++ b/GameList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="23985" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,69 +14,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>游戏英文名</t>
-  </si>
-  <si>
-    <t>Through the Darkest of Times</t>
-  </si>
-  <si>
-    <t>Little Big Workshop</t>
-  </si>
-  <si>
-    <t>Unity of Command II</t>
-  </si>
-  <si>
-    <t>Crying Suns</t>
-  </si>
-  <si>
-    <t>Autonauts</t>
-  </si>
-  <si>
-    <t>Drug Dealer Simulator</t>
-  </si>
-  <si>
-    <t>Cloudpunk</t>
-  </si>
-  <si>
-    <t>Fantasy General II</t>
-  </si>
-  <si>
-    <t>Field of Glory: Empires</t>
-  </si>
-  <si>
-    <t>Iratus: Lord of the Dead</t>
-  </si>
-  <si>
-    <t>Monster Train</t>
-  </si>
-  <si>
-    <t>The Beast Inside</t>
-  </si>
-  <si>
-    <t>Dicey Dungeons</t>
-  </si>
-  <si>
-    <t>Conan Unconquered</t>
-  </si>
-  <si>
-    <t>Steel Division 2</t>
-  </si>
-  <si>
-    <t>Battlefleet Gothic: Armada 2</t>
-  </si>
-  <si>
-    <t>Disco Elysium</t>
-  </si>
-  <si>
-    <t>Green Hell</t>
-  </si>
-  <si>
-    <t>Kenshi</t>
-  </si>
-  <si>
-    <t>Artifact</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>Tile Cities</t>
+  </si>
+  <si>
+    <t>Dinkum</t>
+  </si>
+  <si>
+    <t>Inspector Waffles</t>
+  </si>
+  <si>
+    <t>Yerba Mate Tycoon</t>
+  </si>
+  <si>
+    <t>Placid Plastic Duck Simulator</t>
+  </si>
+  <si>
+    <t>Buddy Simulator 1984</t>
+  </si>
+  <si>
+    <t>The Planet Crafter</t>
+  </si>
+  <si>
+    <t>Hydroneer</t>
+  </si>
+  <si>
+    <t>Production Line : Car factory simulation</t>
+  </si>
+  <si>
+    <t>Wartales</t>
+  </si>
+  <si>
+    <t>Stacklands</t>
+  </si>
+  <si>
+    <t>Bonding Ambivalence</t>
+  </si>
+  <si>
+    <t>Watch Your Plastic Duck</t>
+  </si>
+  <si>
+    <t>Dungeons of Edera</t>
+  </si>
+  <si>
+    <t>My Jigsaw Adventures - Roads of Life</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Avorion</t>
+  </si>
+  <si>
+    <t>GROSS</t>
+  </si>
+  <si>
+    <t>Freedom Planet 2</t>
+  </si>
+  <si>
+    <t>Punch A Bunch</t>
+  </si>
+  <si>
+    <t>EVERSPACE 2</t>
+  </si>
+  <si>
+    <t>Lost Potato</t>
+  </si>
+  <si>
+    <t>The Dungeon Beneath</t>
+  </si>
+  <si>
+    <t>Big Ambitions</t>
+  </si>
+  <si>
+    <t>Octodad: Dadliest Catch</t>
+  </si>
+  <si>
+    <t>Mortal Glory</t>
+  </si>
+  <si>
+    <t>Please Fix The Road</t>
+  </si>
+  <si>
+    <t>Barotrauma</t>
+  </si>
+  <si>
+    <t>Noobs Want to Live</t>
+  </si>
+  <si>
+    <t>Cygnus Enterprises</t>
+  </si>
+  <si>
+    <t>Warsim: The Realm of Aslona</t>
+  </si>
+  <si>
+    <t>Contraband Police</t>
+  </si>
+  <si>
+    <t>Pawnbarian</t>
+  </si>
+  <si>
+    <t>Supraland</t>
+  </si>
+  <si>
+    <t>Townscaper</t>
+  </si>
+  <si>
+    <t>pureya</t>
+  </si>
+  <si>
+    <t>West Hunt</t>
+  </si>
+  <si>
+    <t>PostCollapse</t>
+  </si>
+  <si>
+    <t>Ravenous Devils</t>
+  </si>
+  <si>
+    <t>Mixolumia</t>
+  </si>
+  <si>
+    <t>EVERSPACE</t>
+  </si>
+  <si>
+    <t>Majotori</t>
+  </si>
+  <si>
+    <t>Cthulhu Saves the World</t>
+  </si>
+  <si>
+    <t>Salome's Kiss</t>
+  </si>
+  <si>
+    <t>Protolife</t>
+  </si>
+  <si>
+    <t>City Climber</t>
+  </si>
+  <si>
+    <t>Highway Blossoms</t>
+  </si>
+  <si>
+    <t>Son of a Witch</t>
+  </si>
+  <si>
+    <t>LOST EMBER</t>
+  </si>
+  <si>
+    <t>A Little Golf Journey</t>
+  </si>
+  <si>
+    <t>Nebula</t>
+  </si>
+  <si>
+    <t>Project Heartbeat</t>
+  </si>
+  <si>
+    <t>Winter Falling: Battle Tactics</t>
+  </si>
+  <si>
+    <t>Eastshade</t>
+  </si>
+  <si>
+    <t>Cauldrons of War - Barbarossa</t>
+  </si>
+  <si>
+    <t>Cosmic Star Heroine</t>
+  </si>
+  <si>
+    <t>Primordia</t>
+  </si>
+  <si>
+    <t>Knock-knock</t>
+  </si>
+  <si>
+    <t>Tinyfolks</t>
+  </si>
+  <si>
+    <t>Tilecraft</t>
+  </si>
+  <si>
+    <t>Bloody Rally Show</t>
+  </si>
+  <si>
+    <t>The Wreck</t>
+  </si>
+  <si>
+    <t>Larcin Lazer</t>
+  </si>
+  <si>
+    <t>The Companion</t>
+  </si>
+  <si>
+    <t>Cthulhu Saves Christmas</t>
+  </si>
+  <si>
+    <t>Cat Herder</t>
   </si>
 </sst>
 </file>
@@ -84,12 +219,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,36 +234,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Microsoft YaHei"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,15 +324,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,20 +342,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -177,84 +363,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,7 +386,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +434,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,55 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,73 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +577,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,11 +595,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,21 +639,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,8 +661,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,145 +697,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,120 +1150,342 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A2:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A170"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="64.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:1">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:1">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:1">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:1">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:1">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
